--- a/results/Performance.xlsx
+++ b/results/Performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Project_Computervisie\performance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Project_Computervisie\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A9824CF-7646-40F1-954D-E3D09AD40BB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA761122-20D9-4499-A5BB-EE7CB767D8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{74B13D9C-214A-477C-994B-96745DE6F972}"/>
   </bookViews>
@@ -30,36 +30,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Blurry_threshold</t>
+    <t>Video</t>
   </si>
   <si>
-    <t>Ratio_threshold</t>
+    <t>Time (sec/frame)</t>
   </si>
   <si>
-    <t>nr frames averaged</t>
-  </si>
-  <si>
-    <t>Stuck_threshold</t>
-  </si>
-  <si>
-    <t>Video 1</t>
-  </si>
-  <si>
-    <t>Video 6</t>
-  </si>
-  <si>
-    <t>Only transfer when stuck in same room</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Frame sampling</t>
+    <t>Accuracy (%)</t>
   </si>
 </sst>
 </file>
@@ -83,41 +62,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -126,12 +76,16 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,177 +401,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4033DB5-C4A2-4FC1-B4D0-67DF2E6C207C}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="2" customWidth="1"/>
     <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F1"/>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="5">
+        <v>0.126</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="4">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B4" s="4">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="C5" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.35</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>30</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.2651</v>
-      </c>
-      <c r="H3">
-        <v>0.62529999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>65</v>
-      </c>
-      <c r="C4">
-        <v>0.35</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.33839999999999998</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0.51739999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>0.35</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.1358</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.32350000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>65</v>
-      </c>
-      <c r="C6">
-        <v>0.35</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.31419999999999998</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0.49719999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>0.35</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.4133</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.36980000000000002</v>
+      <c r="B9" s="4">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="C9" s="4">
+        <v>13.7</v>
       </c>
     </row>
   </sheetData>

--- a/results/Performance.xlsx
+++ b/results/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Project_Computervisie\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA761122-20D9-4499-A5BB-EE7CB767D8EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3AD37-7BBD-4680-BE58-55FC03CDD2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{74B13D9C-214A-477C-994B-96745DE6F972}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,8 +493,12 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -504,7 +508,7 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="C9" s="4">
-        <v>13.7</v>
+        <v>11.2</v>
       </c>
     </row>
   </sheetData>

--- a/results/Performance.xlsx
+++ b/results/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAA_Projecten\Project_Computervisie\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F3AD37-7BBD-4680-BE58-55FC03CDD2C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF79600-C30C-4153-A698-881963526C46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" xr2:uid="{74B13D9C-214A-477C-994B-96745DE6F972}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>Video</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>Accuracy (%)</t>
+  </si>
+  <si>
+    <t>AVERAGE:</t>
+  </si>
+  <si>
+    <t>Standard deviation:</t>
   </si>
 </sst>
 </file>
@@ -54,15 +60,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -70,11 +88,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -85,6 +171,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -401,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4033DB5-C4A2-4FC1-B4D0-67DF2E6C207C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,19 +529,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -439,7 +552,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="4">
@@ -450,7 +563,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="4">
@@ -462,7 +575,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="4">
@@ -474,23 +587,31 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.93</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.82</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="4">
@@ -501,7 +622,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="4">
@@ -509,6 +630,32 @@
       </c>
       <c r="C9" s="4">
         <v>11.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10">
+        <f>AVERAGE(B2:B9)</f>
+        <v>0.43774999999999997</v>
+      </c>
+      <c r="C10" s="11">
+        <f>AVERAGE(C2:C9)</f>
+        <v>8.3387499999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12">
+        <f>_xlfn.STDEV.P(B2:B9)</f>
+        <v>0.19119868592644682</v>
+      </c>
+      <c r="C11" s="13">
+        <f>_xlfn.STDEV.P(C2:C9)</f>
+        <v>2.1172236389904602</v>
       </c>
     </row>
   </sheetData>
